--- a/gemma2_test/input.xlsx
+++ b/gemma2_test/input.xlsx
@@ -1,150 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/470e288704938fe9/work/misc/gemma2_test/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{0CCF34A4-4CF5-4E61-BC89-8DAD2548DD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ED2D77A-6F35-496A-9175-04E3D1020E5E}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>English</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Japanese</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1. The sun rises in the east.</t>
-  </si>
-  <si>
-    <t>2. She loves to read books.</t>
-  </si>
-  <si>
-    <t>3. He is a talented musician.</t>
-  </si>
-  <si>
-    <t>4. They went to the park yesterday.</t>
-  </si>
-  <si>
-    <t>5. The cat is sleeping on the couch.</t>
-  </si>
-  <si>
-    <t>6. I enjoy cooking Italian food.</t>
-  </si>
-  <si>
-    <t>7. We are planning a trip to Europe.</t>
-  </si>
-  <si>
-    <t>8. The movie was very entertaining.</t>
-  </si>
-  <si>
-    <t>9. She has a beautiful singing voice.</t>
-  </si>
-  <si>
-    <t>10. He works as a software engineer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">彼はソフトウェアエンジニアとして働いています。 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">映画は非常に面白かったです。 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">太陽は東に昇る。 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">彼女は本を読むのが好きだ。 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">彼は才能ある音楽家だ。 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">彼らは昨日公園へ行く去了。 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">猫はソファで眠っている。 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">イタリア料理を作ると、とても楽しいです。 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ヨーロッパ旅行を計画しています。 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">彼女は素晴らしい歌唱力を持っている。 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="18"/>
     </font>
     <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -163,42 +70,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,172 +430,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="2" width="48.5" customWidth="1"/>
+    <col width="22.125" customWidth="1" min="1" max="1"/>
+    <col width="48.5" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="33">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="33">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="33">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="33">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="33">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="33">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="33">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="33">
-      <c r="A9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="33">
-      <c r="A10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="33">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="33" spans="1:1" ht="23.25">
-      <c r="A33" s="5"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>1. The sun rises in the east.</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">太陽は東に沈みます。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="33" customHeight="1">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>2. She loves to read books.</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">彼女は本を読むのが好きだ。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="33" customHeight="1">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>3. He is a talented musician.</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">彼は才能ある音楽家だ。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>4. They went to the park yesterday.</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">彼らは昨日公園に行きました。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="33" customHeight="1">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>5. The cat is sleeping on the couch.</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5. 猫はソファで寝ている。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="33" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>6. I enjoy cooking Italian food.</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6. イタリア料理を作るのが好きだ。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="33" customHeight="1">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>7. We are planning a trip to Europe.</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">欧州旅行を計画しています。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="33" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>8. The movie was very entertaining.</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">映画は非常に面白かったです。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="33" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>9. She has a beautiful singing voice.</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">彼女は美しい歌声が持つ。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="33" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>10. He works as a software engineer.</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">彼はソフトウェアエンジニアとして働いています。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n"/>
+    </row>
+    <row r="32"/>
+    <row r="33" ht="23.25" customHeight="1">
+      <c r="A33" s="5" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>